--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -11,14 +11,13 @@
     <sheet name="ad" sheetId="2" r:id="rId2"/>
     <sheet name="pwd_ad" sheetId="3" r:id="rId3"/>
     <sheet name="radius" sheetId="4" r:id="rId4"/>
-    <sheet name="add_user" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,326 +51,278 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>密码错误的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号和密码均为空的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius口令为空校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令为空校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写错误域口令的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写错误radius口令的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定AD域+口令认证方式的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定AD域认证方式的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_checkout_005</t>
+  </si>
+  <si>
+    <t>test_F01_accessTimes_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADlogin_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADcheckout_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_radiuscheckout_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADPwdlogin_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新添加的用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于锁定状态的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号未生效的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写账号校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号已锁定，请找管理员解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写密码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accountlock_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ineffective _003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_checkout_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccccccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第一次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第二次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accessTimes_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩1次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩2次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号未生效,生效时间：2020-09-08 17:21:31.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius口令5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrloginad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrloginad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hH@1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号和密码均为空的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius口令为空校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域口令为空校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写错误域口令的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写错误radius口令的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定AD域+口令认证方式的用户能够正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定AD域认证方式的用户能够正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域口令不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_checkout_005</t>
-  </si>
-  <si>
-    <t>test_F01_accessTimes_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ADlogin_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ADcheckout_009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_radiuscheckout_010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ADPwdlogin_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新添加的用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处于锁定状态的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号未生效的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填写账号校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号已锁定，请找管理员解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填写密码校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_accountlock_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ineffective _003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_checkout_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccccccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大(第一次登录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大(第二次登录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_accessTimes_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误，您还剩1次机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误，您还剩2次机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号未生效,生效时间：2020-09-08 17:21:31.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-09-08 17:21:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证方式5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD域账号6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius口令5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域口令5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrlogin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrlogin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrlogin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrlogin4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrloginad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrloginad1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -503,19 +454,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,7 +464,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,15 +480,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -584,8 +516,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,7 +828,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -902,255 +837,255 @@
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+      <c r="D2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="D4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>64</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="D5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>1111</v>
       </c>
-      <c r="E6" s="7">
-        <v>2</v>
+      <c r="E6" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="7">
-        <v>2</v>
+      <c r="D7" s="15"/>
+      <c r="E7" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>1111</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2</v>
+      <c r="D10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2</v>
+      <c r="D11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2</v>
+      <c r="D12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
+      <c r="D13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1163,8 +1098,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E11:E13" r:id="rId5" display="qawsed@123"/>
+    <hyperlink ref="E11" r:id="rId6"/>
+    <hyperlink ref="E12" r:id="rId7"/>
+    <hyperlink ref="E13" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1173,13 +1118,13 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
@@ -1188,198 +1133,198 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
+      <c r="F2" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1396,7 +1341,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1405,61 +1350,60 @@
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="5" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="5">
+        <v>73</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1467,17 +1411,17 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="E3" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1486,16 +1430,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1509,16 +1453,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1">
+        <v>45</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1526,6 +1470,8 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E3:E5" r:id="rId4" display="qawsed@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1536,7 +1482,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1550,67 +1496,67 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>53</v>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
-        <v>54</v>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1620,193 +1566,24 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>55</v>
+      <c r="C4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>